--- a/declaracion.xlsx
+++ b/declaracion.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="juridica" sheetId="1" r:id="rId1"/>
     <sheet name="natural" sheetId="2" r:id="rId2"/>
     <sheet name="iva bimestal" sheetId="3" r:id="rId3"/>
-    <sheet name="iva cuatrimestal" sheetId="4" r:id="rId4"/>
-    <sheet name="consumo" sheetId="5" r:id="rId5"/>
-    <sheet name="retencion en la fuente" sheetId="6" r:id="rId6"/>
-    <sheet name="declaracion anual consolidad" sheetId="7" r:id="rId7"/>
-    <sheet name="d anual consolidad de impuesto " sheetId="8" r:id="rId8"/>
-    <sheet name="anticipo bimestral" sheetId="9" r:id="rId9"/>
+    <sheet name="gran contribuyente" sheetId="10" r:id="rId4"/>
+    <sheet name="iva cuatrimestal" sheetId="4" r:id="rId5"/>
+    <sheet name="consumo" sheetId="5" r:id="rId6"/>
+    <sheet name="retencion en la fuente" sheetId="6" r:id="rId7"/>
+    <sheet name="declaracion anual consolidad" sheetId="7" r:id="rId8"/>
+    <sheet name="d anual consolidad de impuesto " sheetId="8" r:id="rId9"/>
+    <sheet name="anticipo bimestral" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
   <si>
     <t>nota: tener presente los numeros 01 02 … y 00</t>
   </si>
@@ -117,19 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -142,6 +134,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -427,7 +431,7 @@
   <dimension ref="A1:CW4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,582 +440,589 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="1">
         <v>13</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="1">
         <v>14</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="1">
         <v>15</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="1">
         <v>17</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="1">
         <v>18</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="1">
         <v>19</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="1">
         <v>20</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="1">
         <v>21</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="1">
         <v>22</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="1">
         <v>23</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="1">
         <v>24</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="1">
         <v>25</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1" s="1">
         <v>26</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="1">
         <v>27</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AC1" s="1">
         <v>28</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AD1" s="1">
         <v>29</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AE1" s="1">
         <v>30</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AF1" s="1">
         <v>31</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AG1" s="1">
         <v>32</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AH1" s="1">
         <v>33</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AI1" s="1">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AJ1" s="1">
         <v>35</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AK1" s="1">
         <v>36</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AL1" s="1">
         <v>37</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AM1" s="1">
         <v>38</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AN1" s="1">
         <v>39</v>
       </c>
-      <c r="AO1" s="2">
+      <c r="AO1" s="1">
         <v>40</v>
       </c>
-      <c r="AP1" s="2">
+      <c r="AP1" s="1">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2">
+      <c r="AQ1" s="1">
         <v>42</v>
       </c>
-      <c r="AR1" s="2">
+      <c r="AR1" s="1">
         <v>43</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="AS1" s="1">
         <v>44</v>
       </c>
-      <c r="AT1" s="2">
+      <c r="AT1" s="1">
         <v>45</v>
       </c>
-      <c r="AU1" s="2">
+      <c r="AU1" s="1">
         <v>46</v>
       </c>
-      <c r="AV1" s="2">
+      <c r="AV1" s="1">
         <v>47</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AW1" s="1">
         <v>48</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="AX1" s="1">
         <v>49</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="AY1" s="1">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="AZ1" s="1">
         <v>51</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BA1" s="1">
         <v>52</v>
       </c>
-      <c r="BB1" s="2">
+      <c r="BB1" s="1">
         <v>53</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="BC1" s="1">
         <v>54</v>
       </c>
-      <c r="BD1" s="2">
+      <c r="BD1" s="1">
         <v>55</v>
       </c>
-      <c r="BE1" s="2">
+      <c r="BE1" s="1">
         <v>56</v>
       </c>
-      <c r="BF1" s="2">
+      <c r="BF1" s="1">
         <v>57</v>
       </c>
-      <c r="BG1" s="2">
+      <c r="BG1" s="1">
         <v>58</v>
       </c>
-      <c r="BH1" s="2">
+      <c r="BH1" s="1">
         <v>59</v>
       </c>
-      <c r="BI1" s="2">
+      <c r="BI1" s="1">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BJ1" s="1">
         <v>61</v>
       </c>
-      <c r="BK1" s="2">
+      <c r="BK1" s="1">
         <v>62</v>
       </c>
-      <c r="BL1" s="2">
+      <c r="BL1" s="1">
         <v>63</v>
       </c>
-      <c r="BM1" s="2">
+      <c r="BM1" s="1">
         <v>64</v>
       </c>
-      <c r="BN1" s="2">
+      <c r="BN1" s="1">
         <v>65</v>
       </c>
-      <c r="BO1" s="2">
+      <c r="BO1" s="1">
         <v>66</v>
       </c>
-      <c r="BP1" s="2">
+      <c r="BP1" s="1">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2">
+      <c r="BQ1" s="1">
         <v>68</v>
       </c>
-      <c r="BR1" s="2">
+      <c r="BR1" s="1">
         <v>69</v>
       </c>
-      <c r="BS1" s="2">
+      <c r="BS1" s="1">
         <v>70</v>
       </c>
-      <c r="BT1" s="2">
+      <c r="BT1" s="1">
         <v>71</v>
       </c>
-      <c r="BU1" s="2">
+      <c r="BU1" s="1">
         <v>72</v>
       </c>
-      <c r="BV1" s="2">
+      <c r="BV1" s="1">
         <v>73</v>
       </c>
-      <c r="BW1" s="2">
+      <c r="BW1" s="1">
         <v>74</v>
       </c>
-      <c r="BX1" s="2">
+      <c r="BX1" s="1">
         <v>75</v>
       </c>
-      <c r="BY1" s="2">
+      <c r="BY1" s="1">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2">
+      <c r="BZ1" s="1">
         <v>77</v>
       </c>
-      <c r="CA1" s="2">
+      <c r="CA1" s="1">
         <v>78</v>
       </c>
-      <c r="CB1" s="2">
+      <c r="CB1" s="1">
         <v>79</v>
       </c>
-      <c r="CC1" s="2">
+      <c r="CC1" s="1">
         <v>80</v>
       </c>
-      <c r="CD1" s="2">
+      <c r="CD1" s="1">
         <v>81</v>
       </c>
-      <c r="CE1" s="2">
+      <c r="CE1" s="1">
         <v>82</v>
       </c>
-      <c r="CF1" s="2">
+      <c r="CF1" s="1">
         <v>83</v>
       </c>
-      <c r="CG1" s="2">
+      <c r="CG1" s="1">
         <v>84</v>
       </c>
-      <c r="CH1" s="2">
+      <c r="CH1" s="1">
         <v>85</v>
       </c>
-      <c r="CI1" s="2">
+      <c r="CI1" s="1">
         <v>86</v>
       </c>
-      <c r="CJ1" s="2">
+      <c r="CJ1" s="1">
         <v>87</v>
       </c>
-      <c r="CK1" s="2">
+      <c r="CK1" s="1">
         <v>88</v>
       </c>
-      <c r="CL1" s="2">
+      <c r="CL1" s="1">
         <v>89</v>
       </c>
-      <c r="CM1" s="2">
+      <c r="CM1" s="1">
         <v>90</v>
       </c>
-      <c r="CN1" s="2">
+      <c r="CN1" s="1">
         <v>91</v>
       </c>
-      <c r="CO1" s="2">
+      <c r="CO1" s="1">
         <v>92</v>
       </c>
-      <c r="CP1" s="2">
+      <c r="CP1" s="1">
         <v>93</v>
       </c>
-      <c r="CQ1" s="2">
+      <c r="CQ1" s="1">
         <v>94</v>
       </c>
-      <c r="CR1" s="2">
+      <c r="CR1" s="1">
         <v>95</v>
       </c>
-      <c r="CS1" s="2">
+      <c r="CS1" s="1">
         <v>96</v>
       </c>
-      <c r="CT1" s="2">
+      <c r="CT1" s="1">
         <v>97</v>
       </c>
-      <c r="CU1" s="2">
+      <c r="CU1" s="1">
         <v>98</v>
       </c>
-      <c r="CV1" s="2">
+      <c r="CV1" s="1">
         <v>99</v>
       </c>
-      <c r="CW1" s="6">
+      <c r="CW1" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="10">
         <v>7</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10">
         <v>8</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10">
         <v>11</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3">
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10">
         <v>12</v>
       </c>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3">
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10">
         <v>13</v>
       </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3">
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10">
         <v>18</v>
       </c>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3">
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10">
         <v>19</v>
       </c>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3">
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10">
         <v>20</v>
       </c>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3">
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10">
         <v>21</v>
       </c>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3">
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10">
         <v>22</v>
       </c>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3">
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10">
         <v>25</v>
       </c>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3">
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10">
         <v>26</v>
       </c>
-      <c r="BF2" s="3"/>
-      <c r="BG2" s="3"/>
-      <c r="BH2" s="3"/>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3">
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="10"/>
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="10">
         <v>27</v>
       </c>
-      <c r="BK2" s="3"/>
-      <c r="BL2" s="3"/>
-      <c r="BM2" s="3"/>
-      <c r="BN2" s="3"/>
-      <c r="BO2" s="3">
+      <c r="BK2" s="10"/>
+      <c r="BL2" s="10"/>
+      <c r="BM2" s="10"/>
+      <c r="BN2" s="10"/>
+      <c r="BO2" s="10">
         <v>28</v>
       </c>
-      <c r="BP2" s="3"/>
-      <c r="BQ2" s="3"/>
-      <c r="BR2" s="3"/>
-      <c r="BS2" s="3"/>
-      <c r="BT2" s="3">
+      <c r="BP2" s="10"/>
+      <c r="BQ2" s="10"/>
+      <c r="BR2" s="10"/>
+      <c r="BS2" s="10"/>
+      <c r="BT2" s="10">
         <v>29</v>
       </c>
-      <c r="BU2" s="3"/>
-      <c r="BV2" s="3"/>
-      <c r="BW2" s="3"/>
-      <c r="BX2" s="3"/>
-      <c r="BY2" s="3">
+      <c r="BU2" s="10"/>
+      <c r="BV2" s="10"/>
+      <c r="BW2" s="10"/>
+      <c r="BX2" s="10"/>
+      <c r="BY2" s="10">
         <v>2</v>
       </c>
-      <c r="BZ2" s="3"/>
-      <c r="CA2" s="3"/>
-      <c r="CB2" s="3"/>
-      <c r="CC2" s="3"/>
-      <c r="CD2" s="3">
+      <c r="BZ2" s="10"/>
+      <c r="CA2" s="10"/>
+      <c r="CB2" s="10"/>
+      <c r="CC2" s="10"/>
+      <c r="CD2" s="10">
         <v>3</v>
       </c>
-      <c r="CE2" s="3"/>
-      <c r="CF2" s="3"/>
-      <c r="CG2" s="3"/>
-      <c r="CH2" s="3"/>
-      <c r="CI2" s="3">
+      <c r="CE2" s="10"/>
+      <c r="CF2" s="10"/>
+      <c r="CG2" s="10"/>
+      <c r="CH2" s="10"/>
+      <c r="CI2" s="10">
         <v>4</v>
       </c>
-      <c r="CJ2" s="3"/>
-      <c r="CK2" s="3"/>
-      <c r="CL2" s="3"/>
-      <c r="CM2" s="3"/>
-      <c r="CN2" s="3">
+      <c r="CJ2" s="10"/>
+      <c r="CK2" s="10"/>
+      <c r="CL2" s="10"/>
+      <c r="CM2" s="10"/>
+      <c r="CN2" s="10">
         <v>5</v>
       </c>
-      <c r="CO2" s="3"/>
-      <c r="CP2" s="3"/>
-      <c r="CQ2" s="3"/>
-      <c r="CR2" s="3"/>
-      <c r="CS2" s="3">
+      <c r="CO2" s="10"/>
+      <c r="CP2" s="10"/>
+      <c r="CQ2" s="10"/>
+      <c r="CR2" s="10"/>
+      <c r="CS2" s="10">
         <v>6</v>
       </c>
-      <c r="CT2" s="3"/>
-      <c r="CU2" s="3"/>
-      <c r="CV2" s="3"/>
-      <c r="CW2" s="3"/>
+      <c r="CT2" s="10"/>
+      <c r="CU2" s="10"/>
+      <c r="CV2" s="10"/>
+      <c r="CW2" s="10"/>
     </row>
     <row r="3" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
-      <c r="BG3" s="3"/>
-      <c r="BH3" s="3"/>
-      <c r="BI3" s="3"/>
-      <c r="BJ3" s="3"/>
-      <c r="BK3" s="3"/>
-      <c r="BL3" s="3"/>
-      <c r="BM3" s="3"/>
-      <c r="BN3" s="3"/>
-      <c r="BO3" s="3"/>
-      <c r="BP3" s="3"/>
-      <c r="BQ3" s="3"/>
-      <c r="BR3" s="3"/>
-      <c r="BS3" s="3"/>
-      <c r="BT3" s="3"/>
-      <c r="BU3" s="3"/>
-      <c r="BV3" s="3"/>
-      <c r="BW3" s="3"/>
-      <c r="BX3" s="3"/>
-      <c r="BY3" s="3">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="10"/>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="10"/>
+      <c r="BO3" s="10"/>
+      <c r="BP3" s="10"/>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="10"/>
+      <c r="BS3" s="10"/>
+      <c r="BT3" s="10"/>
+      <c r="BU3" s="10"/>
+      <c r="BV3" s="10"/>
+      <c r="BW3" s="10"/>
+      <c r="BX3" s="10"/>
+      <c r="BY3" s="10">
         <v>5</v>
       </c>
-      <c r="BZ3" s="3"/>
-      <c r="CA3" s="3"/>
-      <c r="CB3" s="3"/>
-      <c r="CC3" s="3"/>
-      <c r="CD3" s="3"/>
-      <c r="CE3" s="3"/>
-      <c r="CF3" s="3"/>
-      <c r="CG3" s="3"/>
-      <c r="CH3" s="3"/>
-      <c r="CI3" s="3"/>
-      <c r="CJ3" s="3"/>
-      <c r="CK3" s="3"/>
-      <c r="CL3" s="3"/>
-      <c r="CM3" s="3"/>
-      <c r="CN3" s="3"/>
-      <c r="CO3" s="3"/>
-      <c r="CP3" s="3"/>
-      <c r="CQ3" s="3"/>
-      <c r="CR3" s="3"/>
-      <c r="CS3" s="3"/>
-      <c r="CT3" s="3"/>
-      <c r="CU3" s="3"/>
-      <c r="CV3" s="3"/>
-      <c r="CW3" s="3"/>
+      <c r="BZ3" s="10"/>
+      <c r="CA3" s="10"/>
+      <c r="CB3" s="10"/>
+      <c r="CC3" s="10"/>
+      <c r="CD3" s="10"/>
+      <c r="CE3" s="10"/>
+      <c r="CF3" s="10"/>
+      <c r="CG3" s="10"/>
+      <c r="CH3" s="10"/>
+      <c r="CI3" s="10"/>
+      <c r="CJ3" s="10"/>
+      <c r="CK3" s="10"/>
+      <c r="CL3" s="10"/>
+      <c r="CM3" s="10"/>
+      <c r="CN3" s="10"/>
+      <c r="CO3" s="10"/>
+      <c r="CP3" s="10"/>
+      <c r="CQ3" s="10"/>
+      <c r="CR3" s="10"/>
+      <c r="CS3" s="10"/>
+      <c r="CT3" s="10"/>
+      <c r="CU3" s="10"/>
+      <c r="CV3" s="10"/>
+      <c r="CW3" s="10"/>
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="CN2:CR2"/>
     <mergeCell ref="B3:BX3"/>
@@ -1028,13 +1039,220 @@
     <mergeCell ref="AP2:AT2"/>
     <mergeCell ref="AU2:AY2"/>
     <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="19" width="4.5703125" customWidth="1"/>
+    <col min="20" max="30" width="4.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6">
+        <v>0</v>
+      </c>
+      <c r="L1" s="6">
+        <v>1</v>
+      </c>
+      <c r="M1" s="6">
+        <v>2</v>
+      </c>
+      <c r="N1" s="6">
+        <v>3</v>
+      </c>
+      <c r="O1" s="6">
+        <v>4</v>
+      </c>
+      <c r="P1" s="6">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>6</v>
+      </c>
+      <c r="R1" s="6">
+        <v>7</v>
+      </c>
+      <c r="S1" s="6">
+        <v>8</v>
+      </c>
+      <c r="T1" s="6">
+        <v>9</v>
+      </c>
+      <c r="U1" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1">
+        <v>6</v>
+      </c>
+      <c r="M2" s="1">
+        <v>7</v>
+      </c>
+      <c r="N2" s="1">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1">
+        <v>9</v>
+      </c>
+      <c r="P2" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>13</v>
+      </c>
+      <c r="R2" s="1">
+        <v>14</v>
+      </c>
+      <c r="S2" s="1">
+        <v>15</v>
+      </c>
+      <c r="T2" s="1">
+        <v>16</v>
+      </c>
+      <c r="U2" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10">
+        <v>6</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="L3:U3"/>
+    <mergeCell ref="L4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1044,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DG3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:AG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,643 +1273,675 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="1">
         <v>11</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="1">
         <v>13</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="1">
         <v>14</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="1">
         <v>15</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="1">
         <v>17</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="1">
         <v>18</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="1">
         <v>19</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="1">
         <v>20</v>
       </c>
-      <c r="V1" s="2">
+      <c r="V1" s="1">
         <v>21</v>
       </c>
-      <c r="W1" s="2">
+      <c r="W1" s="1">
         <v>22</v>
       </c>
-      <c r="X1" s="2">
+      <c r="X1" s="1">
         <v>23</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Y1" s="1">
         <v>24</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="Z1" s="1">
         <v>25</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AA1" s="1">
         <v>26</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AB1" s="1">
         <v>27</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AC1" s="1">
         <v>28</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AD1" s="1">
         <v>29</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AE1" s="1">
         <v>30</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AF1" s="1">
         <v>31</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AG1" s="1">
         <v>32</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AH1" s="1">
         <v>33</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AI1" s="1">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AJ1" s="1">
         <v>35</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AK1" s="1">
         <v>36</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AL1" s="1">
         <v>37</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AM1" s="1">
         <v>38</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AN1" s="1">
         <v>39</v>
       </c>
-      <c r="AO1" s="2">
+      <c r="AO1" s="1">
         <v>40</v>
       </c>
-      <c r="AP1" s="2">
+      <c r="AP1" s="1">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2">
+      <c r="AQ1" s="1">
         <v>42</v>
       </c>
-      <c r="AR1" s="2">
+      <c r="AR1" s="1">
         <v>43</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="AS1" s="1">
         <v>44</v>
       </c>
-      <c r="AT1" s="2">
+      <c r="AT1" s="1">
         <v>45</v>
       </c>
-      <c r="AU1" s="2">
+      <c r="AU1" s="1">
         <v>46</v>
       </c>
-      <c r="AV1" s="2">
+      <c r="AV1" s="1">
         <v>47</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AW1" s="1">
         <v>48</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="AX1" s="1">
         <v>49</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="AY1" s="1">
         <v>50</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="AZ1" s="1">
         <v>51</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BA1" s="1">
         <v>52</v>
       </c>
-      <c r="BB1" s="2">
+      <c r="BB1" s="1">
         <v>53</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="BC1" s="1">
         <v>54</v>
       </c>
-      <c r="BD1" s="2">
+      <c r="BD1" s="1">
         <v>55</v>
       </c>
-      <c r="BE1" s="2">
+      <c r="BE1" s="1">
         <v>56</v>
       </c>
-      <c r="BF1" s="2">
+      <c r="BF1" s="1">
         <v>57</v>
       </c>
-      <c r="BG1" s="2">
+      <c r="BG1" s="1">
         <v>58</v>
       </c>
-      <c r="BH1" s="2">
+      <c r="BH1" s="1">
         <v>59</v>
       </c>
-      <c r="BI1" s="2">
+      <c r="BI1" s="1">
         <v>60</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BJ1" s="1">
         <v>61</v>
       </c>
-      <c r="BK1" s="2">
+      <c r="BK1" s="1">
         <v>62</v>
       </c>
-      <c r="BL1" s="2">
+      <c r="BL1" s="1">
         <v>63</v>
       </c>
-      <c r="BM1" s="2">
+      <c r="BM1" s="1">
         <v>64</v>
       </c>
-      <c r="BN1" s="2">
+      <c r="BN1" s="1">
         <v>65</v>
       </c>
-      <c r="BO1" s="2">
+      <c r="BO1" s="1">
         <v>66</v>
       </c>
-      <c r="BP1" s="2">
+      <c r="BP1" s="1">
         <v>67</v>
       </c>
-      <c r="BQ1" s="2">
+      <c r="BQ1" s="1">
         <v>68</v>
       </c>
-      <c r="BR1" s="2">
+      <c r="BR1" s="1">
         <v>69</v>
       </c>
-      <c r="BS1" s="2">
+      <c r="BS1" s="1">
         <v>70</v>
       </c>
-      <c r="BT1" s="2">
+      <c r="BT1" s="1">
         <v>71</v>
       </c>
-      <c r="BU1" s="2">
+      <c r="BU1" s="1">
         <v>72</v>
       </c>
-      <c r="BV1" s="2">
+      <c r="BV1" s="1">
         <v>73</v>
       </c>
-      <c r="BW1" s="2">
+      <c r="BW1" s="1">
         <v>74</v>
       </c>
-      <c r="BX1" s="2">
+      <c r="BX1" s="1">
         <v>75</v>
       </c>
-      <c r="BY1" s="2">
+      <c r="BY1" s="1">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2">
+      <c r="BZ1" s="1">
         <v>77</v>
       </c>
-      <c r="CA1" s="2">
+      <c r="CA1" s="1">
         <v>78</v>
       </c>
-      <c r="CB1" s="2">
+      <c r="CB1" s="1">
         <v>79</v>
       </c>
-      <c r="CC1" s="2">
+      <c r="CC1" s="1">
         <v>80</v>
       </c>
-      <c r="CD1" s="2">
+      <c r="CD1" s="1">
         <v>81</v>
       </c>
-      <c r="CE1" s="2">
+      <c r="CE1" s="1">
         <v>82</v>
       </c>
-      <c r="CF1" s="2">
+      <c r="CF1" s="1">
         <v>83</v>
       </c>
-      <c r="CG1" s="2">
+      <c r="CG1" s="1">
         <v>84</v>
       </c>
-      <c r="CH1" s="2">
+      <c r="CH1" s="1">
         <v>85</v>
       </c>
-      <c r="CI1" s="2">
+      <c r="CI1" s="1">
         <v>86</v>
       </c>
-      <c r="CJ1" s="2">
+      <c r="CJ1" s="1">
         <v>87</v>
       </c>
-      <c r="CK1" s="2">
+      <c r="CK1" s="1">
         <v>88</v>
       </c>
-      <c r="CL1" s="2">
+      <c r="CL1" s="1">
         <v>89</v>
       </c>
-      <c r="CM1" s="2">
+      <c r="CM1" s="1">
         <v>90</v>
       </c>
-      <c r="CN1" s="2">
+      <c r="CN1" s="1">
         <v>91</v>
       </c>
-      <c r="CO1" s="2">
+      <c r="CO1" s="1">
         <v>92</v>
       </c>
-      <c r="CP1" s="2">
+      <c r="CP1" s="1">
         <v>93</v>
       </c>
-      <c r="CQ1" s="2">
+      <c r="CQ1" s="1">
         <v>94</v>
       </c>
-      <c r="CR1" s="2">
+      <c r="CR1" s="1">
         <v>95</v>
       </c>
-      <c r="CS1" s="2">
+      <c r="CS1" s="1">
         <v>96</v>
       </c>
-      <c r="CT1" s="2">
+      <c r="CT1" s="1">
         <v>97</v>
       </c>
-      <c r="CU1" s="2">
+      <c r="CU1" s="1">
         <v>98</v>
       </c>
-      <c r="CV1" s="2">
+      <c r="CV1" s="1">
         <v>99</v>
       </c>
-      <c r="CW1" s="2">
+      <c r="CW1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="10">
         <v>9</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10">
         <v>10</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10">
         <v>11</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10">
         <v>12</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10">
         <v>16</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10">
         <v>17</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3">
+      <c r="M2" s="10"/>
+      <c r="N2" s="10">
         <v>18</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3">
+      <c r="O2" s="10"/>
+      <c r="P2" s="10">
         <v>19</v>
       </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10">
         <v>22</v>
       </c>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3">
+      <c r="S2" s="10"/>
+      <c r="T2" s="10">
         <v>23</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3">
+      <c r="U2" s="10"/>
+      <c r="V2" s="10">
         <v>24</v>
       </c>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3">
+      <c r="W2" s="10"/>
+      <c r="X2" s="10">
         <v>25</v>
       </c>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3">
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10">
         <v>26</v>
       </c>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3">
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10">
         <v>29</v>
       </c>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3">
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10">
         <v>30</v>
       </c>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3">
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10">
         <v>31</v>
       </c>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3">
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10">
         <v>1</v>
       </c>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3">
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10">
         <v>2</v>
       </c>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3">
+      <c r="AK2" s="10"/>
+      <c r="AL2" s="10">
         <v>5</v>
       </c>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3">
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10">
         <v>6</v>
       </c>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3">
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10">
         <v>7</v>
       </c>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3">
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10">
         <v>8</v>
       </c>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3">
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10">
         <v>9</v>
       </c>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3">
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10">
         <v>12</v>
       </c>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3">
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10">
         <v>13</v>
       </c>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3">
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10">
         <v>14</v>
       </c>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3">
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10">
         <v>15</v>
       </c>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3">
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10">
         <v>16</v>
       </c>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3">
+      <c r="BE2" s="10"/>
+      <c r="BF2" s="10">
         <v>19</v>
       </c>
-      <c r="BG2" s="3"/>
-      <c r="BH2" s="3">
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="10">
         <v>20</v>
       </c>
-      <c r="BI2" s="3"/>
-      <c r="BJ2" s="3">
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="10">
         <v>21</v>
       </c>
-      <c r="BK2" s="3"/>
-      <c r="BL2" s="3">
+      <c r="BK2" s="10"/>
+      <c r="BL2" s="10">
         <v>22</v>
       </c>
-      <c r="BM2" s="3"/>
-      <c r="BN2" s="3">
+      <c r="BM2" s="10"/>
+      <c r="BN2" s="10">
         <v>23</v>
       </c>
-      <c r="BO2" s="3"/>
-      <c r="BP2" s="3">
+      <c r="BO2" s="10"/>
+      <c r="BP2" s="10">
         <v>26</v>
       </c>
-      <c r="BQ2" s="3"/>
-      <c r="BR2" s="3">
+      <c r="BQ2" s="10"/>
+      <c r="BR2" s="10">
         <v>27</v>
       </c>
-      <c r="BS2" s="3"/>
-      <c r="BT2" s="3">
+      <c r="BS2" s="10"/>
+      <c r="BT2" s="10">
         <v>28</v>
       </c>
-      <c r="BU2" s="3"/>
-      <c r="BV2" s="3">
+      <c r="BU2" s="10"/>
+      <c r="BV2" s="10">
         <v>29</v>
       </c>
-      <c r="BW2" s="3"/>
-      <c r="BX2" s="3">
+      <c r="BW2" s="10"/>
+      <c r="BX2" s="10">
         <v>30</v>
       </c>
-      <c r="BY2" s="3"/>
-      <c r="BZ2" s="3">
+      <c r="BY2" s="10"/>
+      <c r="BZ2" s="10">
         <v>3</v>
       </c>
-      <c r="CA2" s="3"/>
-      <c r="CB2" s="3">
+      <c r="CA2" s="10"/>
+      <c r="CB2" s="10">
         <v>4</v>
       </c>
-      <c r="CC2" s="3"/>
-      <c r="CD2" s="3">
+      <c r="CC2" s="10"/>
+      <c r="CD2" s="10">
         <v>5</v>
       </c>
-      <c r="CE2" s="3"/>
-      <c r="CF2" s="3">
+      <c r="CE2" s="10"/>
+      <c r="CF2" s="10">
         <v>6</v>
       </c>
-      <c r="CG2" s="3"/>
-      <c r="CH2" s="3">
+      <c r="CG2" s="10"/>
+      <c r="CH2" s="10">
         <v>7</v>
       </c>
-      <c r="CI2" s="3"/>
-      <c r="CJ2" s="3">
+      <c r="CI2" s="10"/>
+      <c r="CJ2" s="10">
         <v>10</v>
       </c>
-      <c r="CK2" s="3"/>
-      <c r="CL2" s="3">
+      <c r="CK2" s="10"/>
+      <c r="CL2" s="10">
         <v>11</v>
       </c>
-      <c r="CM2" s="3"/>
-      <c r="CN2" s="3">
+      <c r="CM2" s="10"/>
+      <c r="CN2" s="10">
         <v>12</v>
       </c>
-      <c r="CO2" s="3"/>
-      <c r="CP2" s="3">
+      <c r="CO2" s="10"/>
+      <c r="CP2" s="10">
         <v>13</v>
       </c>
-      <c r="CQ2" s="3"/>
-      <c r="CR2" s="3">
+      <c r="CQ2" s="10"/>
+      <c r="CR2" s="10">
         <v>14</v>
       </c>
-      <c r="CS2" s="3"/>
-      <c r="CT2" s="3">
+      <c r="CS2" s="10"/>
+      <c r="CT2" s="10">
         <v>18</v>
       </c>
-      <c r="CU2" s="3"/>
-      <c r="CV2" s="3">
+      <c r="CU2" s="10"/>
+      <c r="CV2" s="10">
         <v>19</v>
       </c>
-      <c r="CW2" s="3"/>
-      <c r="CX2" s="1"/>
-      <c r="CY2" s="1"/>
-      <c r="CZ2" s="1"/>
-      <c r="DA2" s="1"/>
-      <c r="DB2" s="1"/>
-      <c r="DC2" s="1"/>
-      <c r="DD2" s="1"/>
-      <c r="DE2" s="1"/>
-      <c r="DF2" s="1"/>
-      <c r="DG2" s="1"/>
+      <c r="CW2" s="10"/>
+      <c r="CX2" s="11"/>
+      <c r="CY2" s="11"/>
+      <c r="CZ2" s="11"/>
+      <c r="DA2" s="11"/>
+      <c r="DB2" s="11"/>
+      <c r="DC2" s="11"/>
+      <c r="DD2" s="11"/>
+      <c r="DE2" s="11"/>
+      <c r="DF2" s="11"/>
+      <c r="DG2" s="11"/>
     </row>
     <row r="3" spans="1:111" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <v>8</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10">
         <v>9</v>
       </c>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
-      <c r="BG3" s="3"/>
-      <c r="BH3" s="3"/>
-      <c r="BI3" s="3"/>
-      <c r="BJ3" s="3"/>
-      <c r="BK3" s="3"/>
-      <c r="BL3" s="3"/>
-      <c r="BM3" s="3"/>
-      <c r="BN3" s="3"/>
-      <c r="BO3" s="3"/>
-      <c r="BP3" s="3"/>
-      <c r="BQ3" s="3"/>
-      <c r="BR3" s="3"/>
-      <c r="BS3" s="3"/>
-      <c r="BT3" s="3"/>
-      <c r="BU3" s="3"/>
-      <c r="BV3" s="3"/>
-      <c r="BW3" s="3"/>
-      <c r="BX3" s="3"/>
-      <c r="BY3" s="3"/>
-      <c r="BZ3" s="3">
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="10"/>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="10"/>
+      <c r="BO3" s="10"/>
+      <c r="BP3" s="10"/>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="10"/>
+      <c r="BS3" s="10"/>
+      <c r="BT3" s="10"/>
+      <c r="BU3" s="10"/>
+      <c r="BV3" s="10"/>
+      <c r="BW3" s="10"/>
+      <c r="BX3" s="10"/>
+      <c r="BY3" s="10"/>
+      <c r="BZ3" s="10">
         <v>10</v>
       </c>
-      <c r="CA3" s="3"/>
-      <c r="CB3" s="3"/>
-      <c r="CC3" s="3"/>
-      <c r="CD3" s="3"/>
-      <c r="CE3" s="3"/>
-      <c r="CF3" s="3"/>
-      <c r="CG3" s="3"/>
-      <c r="CH3" s="3"/>
-      <c r="CI3" s="3"/>
-      <c r="CJ3" s="3"/>
-      <c r="CK3" s="3"/>
-      <c r="CL3" s="3"/>
-      <c r="CM3" s="3"/>
-      <c r="CN3" s="3"/>
-      <c r="CO3" s="3"/>
-      <c r="CP3" s="3"/>
-      <c r="CQ3" s="3"/>
-      <c r="CR3" s="3"/>
-      <c r="CS3" s="3"/>
-      <c r="CT3" s="3"/>
-      <c r="CU3" s="3"/>
-      <c r="CV3" s="3"/>
-      <c r="CW3" s="3"/>
+      <c r="CA3" s="10"/>
+      <c r="CB3" s="10"/>
+      <c r="CC3" s="10"/>
+      <c r="CD3" s="10"/>
+      <c r="CE3" s="10"/>
+      <c r="CF3" s="10"/>
+      <c r="CG3" s="10"/>
+      <c r="CH3" s="10"/>
+      <c r="CI3" s="10"/>
+      <c r="CJ3" s="10"/>
+      <c r="CK3" s="10"/>
+      <c r="CL3" s="10"/>
+      <c r="CM3" s="10"/>
+      <c r="CN3" s="10"/>
+      <c r="CO3" s="10"/>
+      <c r="CP3" s="10"/>
+      <c r="CQ3" s="10"/>
+      <c r="CR3" s="10"/>
+      <c r="CS3" s="10"/>
+      <c r="CT3" s="10"/>
+      <c r="CU3" s="10"/>
+      <c r="CV3" s="10"/>
+      <c r="CW3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="CV2:CW2"/>
-    <mergeCell ref="CX2:CY2"/>
-    <mergeCell ref="CZ2:DA2"/>
-    <mergeCell ref="DB2:DC2"/>
-    <mergeCell ref="DD2:DE2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="BF2:BG2"/>
+    <mergeCell ref="B3:AG3"/>
+    <mergeCell ref="BX2:BY2"/>
+    <mergeCell ref="BH2:BI2"/>
+    <mergeCell ref="BJ2:BK2"/>
+    <mergeCell ref="BL2:BM2"/>
+    <mergeCell ref="BN2:BO2"/>
+    <mergeCell ref="BP2:BQ2"/>
+    <mergeCell ref="BR2:BS2"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="BB2:BC2"/>
+    <mergeCell ref="BD2:BE2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:AY2"/>
     <mergeCell ref="DF2:DG2"/>
     <mergeCell ref="CL2:CM2"/>
     <mergeCell ref="CN2:CO2"/>
@@ -1708,43 +1958,11 @@
     <mergeCell ref="CJ2:CK2"/>
     <mergeCell ref="BT2:BU2"/>
     <mergeCell ref="BV2:BW2"/>
-    <mergeCell ref="BF2:BG2"/>
-    <mergeCell ref="B3:AG3"/>
-    <mergeCell ref="BX2:BY2"/>
-    <mergeCell ref="BH2:BI2"/>
-    <mergeCell ref="BJ2:BK2"/>
-    <mergeCell ref="BL2:BM2"/>
-    <mergeCell ref="BN2:BO2"/>
-    <mergeCell ref="BP2:BQ2"/>
-    <mergeCell ref="BR2:BS2"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="BB2:BC2"/>
-    <mergeCell ref="BD2:BE2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="CV2:CW2"/>
+    <mergeCell ref="CX2:CY2"/>
+    <mergeCell ref="CZ2:DA2"/>
+    <mergeCell ref="DB2:DC2"/>
+    <mergeCell ref="DD2:DE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1755,7 +1973,7 @@
   <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="A1:U3"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1764,163 +1982,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1">
         <v>0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="1">
         <v>1</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="1">
         <v>2</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="1">
         <v>3</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="1">
         <v>4</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="1">
         <v>5</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="1">
         <v>6</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="1">
         <v>7</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="1">
         <v>8</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="1">
         <v>9</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>14</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>15</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>16</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>17</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>18</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>22</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>11</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>12</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>13</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>16</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>17</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>18</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>19</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>20</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10">
         <v>5</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1932,6 +2150,115 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:K3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="11" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -1946,91 +2273,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>12</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>13</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>16</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>14</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>18</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>19</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>20</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2040,7 +2367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -2055,163 +2382,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1">
         <v>0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="1">
         <v>1</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="1">
         <v>2</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="1">
         <v>3</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="1">
         <v>4</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="1">
         <v>5</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="1">
         <v>6</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="1">
         <v>7</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="1">
         <v>8</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="1">
         <v>9</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>14</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>15</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>16</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>17</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>18</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>22</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>10</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>11</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>12</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>13</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="1">
         <v>16</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="1">
         <v>17</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="1">
         <v>18</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="1">
         <v>19</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="1">
         <v>20</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10">
         <v>5</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2222,7 +2549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -2236,163 +2563,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1">
         <v>0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="1">
         <v>1</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="1">
         <v>2</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="1">
         <v>3</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="1">
         <v>4</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="1">
         <v>5</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="1">
         <v>6</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="1">
         <v>7</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="1">
         <v>8</v>
       </c>
-      <c r="T1" s="2">
+      <c r="T1" s="1">
         <v>9</v>
       </c>
-      <c r="U1" s="2">
+      <c r="U1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>9</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>10</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>11</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>14</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>15</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>16</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>17</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <v>18</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>22</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>7</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="2">
         <v>8</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="2">
         <v>11</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="2">
         <v>12</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="2">
         <v>13</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="2">
         <v>18</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="2">
         <v>19</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="2">
         <v>20</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="2">
         <v>21</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <v>3</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10">
         <v>4</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2403,7 +2730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -2417,91 +2744,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>1</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>7</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>8</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>12</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>13</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>18</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>19</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>20</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>21</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="10">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2511,11 +2838,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="B1:K1"/>
     </sheetView>
   </sheetViews>
@@ -2525,87 +2852,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="6">
         <v>1</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="6">
         <v>2</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="6">
         <v>3</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="6">
         <v>4</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="6">
         <v>5</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="6">
         <v>6</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="6">
         <v>7</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="6">
         <v>8</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="6">
         <v>9</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="6">
         <v>0</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="12">
         <v>21</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12">
         <v>22</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12">
         <v>23</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12">
         <v>24</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12">
         <v>25</v>
       </c>
-      <c r="K2" s="10"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2614,226 +2941,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B3:K3"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:K3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="28.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="19" width="4.5703125" customWidth="1"/>
-    <col min="20" max="30" width="4.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9">
-        <v>4</v>
-      </c>
-      <c r="F1" s="9">
-        <v>5</v>
-      </c>
-      <c r="G1" s="9">
-        <v>6</v>
-      </c>
-      <c r="H1" s="9">
-        <v>7</v>
-      </c>
-      <c r="I1" s="9">
-        <v>8</v>
-      </c>
-      <c r="J1" s="9">
-        <v>9</v>
-      </c>
-      <c r="K1" s="9">
-        <v>0</v>
-      </c>
-      <c r="L1" s="9">
-        <v>1</v>
-      </c>
-      <c r="M1" s="9">
-        <v>2</v>
-      </c>
-      <c r="N1" s="9">
-        <v>3</v>
-      </c>
-      <c r="O1" s="9">
-        <v>4</v>
-      </c>
-      <c r="P1" s="9">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="9">
-        <v>6</v>
-      </c>
-      <c r="R1" s="9">
-        <v>7</v>
-      </c>
-      <c r="S1" s="9">
-        <v>8</v>
-      </c>
-      <c r="T1" s="9">
-        <v>9</v>
-      </c>
-      <c r="U1" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2">
-        <v>17</v>
-      </c>
-      <c r="H2" s="2">
-        <v>18</v>
-      </c>
-      <c r="I2" s="2">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2">
-        <v>20</v>
-      </c>
-      <c r="K2" s="2">
-        <v>23</v>
-      </c>
-      <c r="L2" s="2">
-        <v>6</v>
-      </c>
-      <c r="M2" s="2">
-        <v>7</v>
-      </c>
-      <c r="N2" s="2">
-        <v>8</v>
-      </c>
-      <c r="O2" s="2">
-        <v>9</v>
-      </c>
-      <c r="P2" s="2">
-        <v>10</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>13</v>
-      </c>
-      <c r="R2" s="2">
-        <v>14</v>
-      </c>
-      <c r="S2" s="2">
-        <v>15</v>
-      </c>
-      <c r="T2" s="2">
-        <v>16</v>
-      </c>
-      <c r="U2" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3">
-        <v>6</v>
-      </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="L3:U3"/>
-    <mergeCell ref="L4:U4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/declaracion.xlsx
+++ b/declaracion.xlsx
@@ -9,19 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="2760" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="juridica" sheetId="1" r:id="rId1"/>
     <sheet name="natural" sheetId="2" r:id="rId2"/>
     <sheet name="iva bimestal" sheetId="3" r:id="rId3"/>
     <sheet name="gran contribuyente" sheetId="10" r:id="rId4"/>
-    <sheet name="iva cuatrimestal" sheetId="4" r:id="rId5"/>
-    <sheet name="consumo" sheetId="5" r:id="rId6"/>
-    <sheet name="retencion en la fuente" sheetId="6" r:id="rId7"/>
-    <sheet name="declaracion anual consolidad" sheetId="7" r:id="rId8"/>
-    <sheet name="d anual consolidad de impuesto " sheetId="8" r:id="rId9"/>
-    <sheet name="anticipo bimestral" sheetId="9" r:id="rId10"/>
+    <sheet name="exogena grandes contribuyentes" sheetId="11" r:id="rId5"/>
+    <sheet name="exogena persona juridica y natu" sheetId="12" r:id="rId6"/>
+    <sheet name="iva cuatrimestal" sheetId="4" r:id="rId7"/>
+    <sheet name="consumo" sheetId="5" r:id="rId8"/>
+    <sheet name="retencion en la fuente" sheetId="6" r:id="rId9"/>
+    <sheet name="declaracion anual consolidad" sheetId="7" r:id="rId10"/>
+    <sheet name="d anual consolidad de impuesto " sheetId="8" r:id="rId11"/>
+    <sheet name="anticipo bimestral" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="8">
   <si>
     <t>nota: tener presente los numeros 01 02 … y 00</t>
   </si>
@@ -80,7 +82,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -114,11 +116,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -136,10 +184,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -148,6 +199,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -999,30 +1061,23 @@
       <c r="CW3" s="10"/>
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="B4:M4"/>
     <mergeCell ref="CN2:CR2"/>
     <mergeCell ref="B3:BX3"/>
@@ -1039,12 +1094,241 @@
     <mergeCell ref="AP2:AT2"/>
     <mergeCell ref="AU2:AY2"/>
     <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="AA2:AE2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2">
+        <v>18</v>
+      </c>
+      <c r="H2" s="2">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10">
+        <v>4</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="B1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6">
+        <v>0</v>
+      </c>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="13">
+        <v>21</v>
+      </c>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13">
+        <v>22</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13">
+        <v>23</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13">
+        <v>24</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13">
+        <v>25</v>
+      </c>
+      <c r="K2" s="13"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U4"/>
   <sheetViews>
@@ -1781,16 +2065,16 @@
         <v>19</v>
       </c>
       <c r="CW2" s="10"/>
-      <c r="CX2" s="11"/>
-      <c r="CY2" s="11"/>
-      <c r="CZ2" s="11"/>
-      <c r="DA2" s="11"/>
-      <c r="DB2" s="11"/>
-      <c r="DC2" s="11"/>
-      <c r="DD2" s="11"/>
-      <c r="DE2" s="11"/>
-      <c r="DF2" s="11"/>
-      <c r="DG2" s="11"/>
+      <c r="CX2" s="12"/>
+      <c r="CY2" s="12"/>
+      <c r="CZ2" s="12"/>
+      <c r="DA2" s="12"/>
+      <c r="DB2" s="12"/>
+      <c r="DC2" s="12"/>
+      <c r="DD2" s="12"/>
+      <c r="DE2" s="12"/>
+      <c r="DF2" s="12"/>
+      <c r="DG2" s="12"/>
     </row>
     <row r="3" spans="1:111" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -1905,27 +2189,27 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="AF2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="CV2:CW2"/>
+    <mergeCell ref="CX2:CY2"/>
+    <mergeCell ref="CZ2:DA2"/>
+    <mergeCell ref="DB2:DC2"/>
+    <mergeCell ref="DD2:DE2"/>
+    <mergeCell ref="DF2:DG2"/>
+    <mergeCell ref="CL2:CM2"/>
+    <mergeCell ref="CN2:CO2"/>
+    <mergeCell ref="CP2:CQ2"/>
+    <mergeCell ref="AH3:BY3"/>
+    <mergeCell ref="CR2:CS2"/>
+    <mergeCell ref="CT2:CU2"/>
+    <mergeCell ref="BZ3:CW3"/>
+    <mergeCell ref="BZ2:CA2"/>
+    <mergeCell ref="CB2:CC2"/>
+    <mergeCell ref="CD2:CE2"/>
+    <mergeCell ref="CF2:CG2"/>
+    <mergeCell ref="CH2:CI2"/>
+    <mergeCell ref="CJ2:CK2"/>
+    <mergeCell ref="BT2:BU2"/>
+    <mergeCell ref="BV2:BW2"/>
     <mergeCell ref="BF2:BG2"/>
     <mergeCell ref="B3:AG3"/>
     <mergeCell ref="BX2:BY2"/>
@@ -1942,27 +2226,27 @@
     <mergeCell ref="AT2:AU2"/>
     <mergeCell ref="AV2:AW2"/>
     <mergeCell ref="AX2:AY2"/>
-    <mergeCell ref="DF2:DG2"/>
-    <mergeCell ref="CL2:CM2"/>
-    <mergeCell ref="CN2:CO2"/>
-    <mergeCell ref="CP2:CQ2"/>
-    <mergeCell ref="AH3:BY3"/>
-    <mergeCell ref="CR2:CS2"/>
-    <mergeCell ref="CT2:CU2"/>
-    <mergeCell ref="BZ3:CW3"/>
-    <mergeCell ref="BZ2:CA2"/>
-    <mergeCell ref="CB2:CC2"/>
-    <mergeCell ref="CD2:CE2"/>
-    <mergeCell ref="CF2:CG2"/>
-    <mergeCell ref="CH2:CI2"/>
-    <mergeCell ref="CJ2:CK2"/>
-    <mergeCell ref="BT2:BU2"/>
-    <mergeCell ref="BV2:BW2"/>
-    <mergeCell ref="CV2:CW2"/>
-    <mergeCell ref="CX2:CY2"/>
-    <mergeCell ref="CZ2:DA2"/>
-    <mergeCell ref="DB2:DC2"/>
-    <mergeCell ref="DD2:DE2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2153,8 +2437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A1:K3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2259,6 +2543,737 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S37" sqref="S37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:K3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:DG3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>61</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>62</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>63</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>64</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>66</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>67</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>69</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>70</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>71</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>74</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>75</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>76</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>77</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>78</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>79</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>80</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>81</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>82</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>83</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>84</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>85</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>86</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>87</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>88</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>89</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>90</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>91</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>92</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>93</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>94</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>95</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>96</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>97</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>98</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>99</v>
+      </c>
+      <c r="CW1" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10">
+        <v>17</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10">
+        <v>18</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10">
+        <v>19</v>
+      </c>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10">
+        <v>23</v>
+      </c>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10">
+        <v>25</v>
+      </c>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+      <c r="AJ2" s="10"/>
+      <c r="AK2" s="10">
+        <v>26</v>
+      </c>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10"/>
+      <c r="AN2" s="10"/>
+      <c r="AO2" s="10"/>
+      <c r="AP2" s="10">
+        <v>29</v>
+      </c>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10">
+        <v>30</v>
+      </c>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10"/>
+      <c r="AZ2" s="10">
+        <v>31</v>
+      </c>
+      <c r="BA2" s="10"/>
+      <c r="BB2" s="10"/>
+      <c r="BC2" s="10"/>
+      <c r="BD2" s="10"/>
+      <c r="BE2" s="10">
+        <v>1</v>
+      </c>
+      <c r="BF2" s="10"/>
+      <c r="BG2" s="10"/>
+      <c r="BH2" s="10"/>
+      <c r="BI2" s="10"/>
+      <c r="BJ2" s="10">
+        <v>2</v>
+      </c>
+      <c r="BK2" s="10"/>
+      <c r="BL2" s="10"/>
+      <c r="BM2" s="10"/>
+      <c r="BN2" s="10"/>
+      <c r="BO2" s="10">
+        <v>5</v>
+      </c>
+      <c r="BP2" s="10"/>
+      <c r="BQ2" s="10"/>
+      <c r="BR2" s="10"/>
+      <c r="BS2" s="10"/>
+      <c r="BT2" s="10">
+        <v>6</v>
+      </c>
+      <c r="BU2" s="10"/>
+      <c r="BV2" s="10"/>
+      <c r="BW2" s="10"/>
+      <c r="BX2" s="10"/>
+      <c r="BY2" s="10">
+        <v>7</v>
+      </c>
+      <c r="BZ2" s="10"/>
+      <c r="CA2" s="10"/>
+      <c r="CB2" s="10"/>
+      <c r="CC2" s="10"/>
+      <c r="CD2" s="10">
+        <v>8</v>
+      </c>
+      <c r="CE2" s="10"/>
+      <c r="CF2" s="10"/>
+      <c r="CG2" s="10"/>
+      <c r="CH2" s="10"/>
+      <c r="CI2" s="10">
+        <v>9</v>
+      </c>
+      <c r="CJ2" s="10"/>
+      <c r="CK2" s="10"/>
+      <c r="CL2" s="10"/>
+      <c r="CM2" s="10"/>
+      <c r="CN2" s="10">
+        <v>13</v>
+      </c>
+      <c r="CO2" s="10"/>
+      <c r="CP2" s="10"/>
+      <c r="CQ2" s="10"/>
+      <c r="CR2" s="10"/>
+      <c r="CS2" s="10">
+        <v>14</v>
+      </c>
+      <c r="CT2" s="10"/>
+      <c r="CU2" s="10"/>
+      <c r="CV2" s="10"/>
+      <c r="CW2" s="10"/>
+      <c r="CX2" s="15"/>
+      <c r="CY2" s="15"/>
+      <c r="CZ2" s="15"/>
+      <c r="DA2" s="15"/>
+      <c r="DB2" s="16"/>
+      <c r="DC2" s="14"/>
+      <c r="DD2" s="15"/>
+      <c r="DE2" s="15"/>
+      <c r="DF2" s="15"/>
+      <c r="DG2" s="16"/>
+    </row>
+    <row r="3" spans="1:111" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10">
+        <v>5</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="10"/>
+      <c r="AN3" s="10"/>
+      <c r="AO3" s="10"/>
+      <c r="AP3" s="10"/>
+      <c r="AQ3" s="10"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10"/>
+      <c r="AY3" s="10"/>
+      <c r="AZ3" s="10"/>
+      <c r="BA3" s="10"/>
+      <c r="BB3" s="10"/>
+      <c r="BC3" s="10"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10">
+        <v>6</v>
+      </c>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10"/>
+      <c r="BI3" s="10"/>
+      <c r="BJ3" s="10"/>
+      <c r="BK3" s="10"/>
+      <c r="BL3" s="10"/>
+      <c r="BM3" s="10"/>
+      <c r="BN3" s="10"/>
+      <c r="BO3" s="10"/>
+      <c r="BP3" s="10"/>
+      <c r="BQ3" s="10"/>
+      <c r="BR3" s="10"/>
+      <c r="BS3" s="10"/>
+      <c r="BT3" s="10"/>
+      <c r="BU3" s="10"/>
+      <c r="BV3" s="10"/>
+      <c r="BW3" s="10"/>
+      <c r="BX3" s="10"/>
+      <c r="BY3" s="10"/>
+      <c r="BZ3" s="10"/>
+      <c r="CA3" s="10"/>
+      <c r="CB3" s="10"/>
+      <c r="CC3" s="10"/>
+      <c r="CD3" s="10"/>
+      <c r="CE3" s="10"/>
+      <c r="CF3" s="10"/>
+      <c r="CG3" s="10"/>
+      <c r="CH3" s="10"/>
+      <c r="CI3" s="10"/>
+      <c r="CJ3" s="10"/>
+      <c r="CK3" s="10"/>
+      <c r="CL3" s="10"/>
+      <c r="CM3" s="10"/>
+      <c r="CN3" s="10"/>
+      <c r="CO3" s="10"/>
+      <c r="CP3" s="10"/>
+      <c r="CQ3" s="10"/>
+      <c r="CR3" s="10"/>
+      <c r="CS3" s="10"/>
+      <c r="CT3" s="10"/>
+      <c r="CU3" s="10"/>
+      <c r="CV3" s="10"/>
+      <c r="CW3" s="10"/>
+      <c r="CX3" s="17"/>
+      <c r="CY3" s="17"/>
+      <c r="CZ3" s="17"/>
+      <c r="DA3" s="17"/>
+      <c r="DB3" s="17"/>
+      <c r="DC3" s="17"/>
+      <c r="DD3" s="17"/>
+      <c r="DE3" s="17"/>
+      <c r="DF3" s="17"/>
+      <c r="DG3" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="CI2:CM2"/>
+    <mergeCell ref="CN2:CR2"/>
+    <mergeCell ref="CS2:CW2"/>
+    <mergeCell ref="CX2:DB2"/>
+    <mergeCell ref="DC2:DG2"/>
+    <mergeCell ref="B3:BD3"/>
+    <mergeCell ref="BE3:CW3"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="BJ2:BN2"/>
+    <mergeCell ref="BO2:BS2"/>
+    <mergeCell ref="BT2:BX2"/>
+    <mergeCell ref="BY2:CC2"/>
+    <mergeCell ref="CD2:CH2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AK2:AO2"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="V2:Z2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
@@ -2367,7 +3382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -2549,7 +3564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U3"/>
   <sheetViews>
@@ -2728,226 +3743,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="10">
-        <v>4</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:K3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="B1:K1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6">
-        <v>9</v>
-      </c>
-      <c r="K1" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="12">
-        <v>21</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12">
-        <v>22</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12">
-        <v>23</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12">
-        <v>24</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12">
-        <v>25</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="12">
-        <v>2</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>